--- a/library/ob_export_date.xlsx
+++ b/library/ob_export_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3FB181-353B-4C71-8DF1-3A8D8A9286A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A810E6B-C501-4186-A0E0-82063EE4E0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22815" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -84,7 +84,7 @@
     <numFmt numFmtId="165" formatCode="mm&quot;/&quot;dd&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +135,12 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -320,9 +326,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -333,9 +336,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,11 +437,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,19 +772,19 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I8" sqref="I8:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="10"/>
-    <col min="2" max="2" width="20.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28" style="10" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="73.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="10"/>
+    <col min="1" max="1" width="14.42578125" style="9"/>
+    <col min="2" max="2" width="20.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28" style="9" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="73.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,1170 +843,1170 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="13"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="19"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="19"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="13"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="13"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="50"/>
     </row>
     <row r="31" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="13"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="50"/>
     </row>
     <row r="32" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="13"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="13"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="13"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="50"/>
     </row>
     <row r="35" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="13"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="50"/>
     </row>
     <row r="36" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="13"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="50"/>
     </row>
     <row r="37" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="50"/>
     </row>
     <row r="38" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="13"/>
+      <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="19"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="50"/>
     </row>
     <row r="40" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="19"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="13"/>
+      <c r="I40" s="50"/>
     </row>
     <row r="41" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="19"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="50"/>
     </row>
     <row r="42" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="13"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="23"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="13"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="19"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="13"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="19"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="13"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="13"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="13"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="18"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="27"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="13"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="27"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="13"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="19"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="13"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="19"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="13"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="19"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="13"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="4"/>
       <c r="E53" s="2"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="13"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="33"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="34"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="13"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="34"/>
+      <c r="G56" s="32"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="34"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="13"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="34"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="13"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="34"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="13"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="34"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="13"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="34"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="13"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="13"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="34"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="13"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="13"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="13"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="34"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="13"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="34"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="13"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="35"/>
+      <c r="G69" s="33"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="13"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="34"/>
+      <c r="G70" s="32"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="13"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="34"/>
+      <c r="G71" s="32"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="13"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="35"/>
+      <c r="G72" s="33"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="13"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="35"/>
+      <c r="G73" s="33"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="13"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="34"/>
+      <c r="G74" s="32"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="13"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="13"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="34"/>
+      <c r="G76" s="32"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="13"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="13"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="34"/>
+      <c r="G78" s="32"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="13"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="35"/>
+      <c r="G79" s="33"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="13"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="35"/>
+      <c r="G80" s="33"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="13"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="35"/>
+      <c r="G81" s="33"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="13"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="35"/>
+      <c r="G82" s="33"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="13"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="35"/>
+      <c r="G83" s="33"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="13"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-      <c r="G84" s="44"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="37"/>
+      <c r="I84" s="35"/>
     </row>
     <row r="85" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="38"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="36"/>
     </row>
     <row r="86" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="38"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="36"/>
     </row>
     <row r="87" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="38"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="36"/>
     </row>
     <row r="88" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="38"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="36"/>
     </row>
     <row r="89" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="38"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="36"/>
     </row>
     <row r="90" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="38"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="36"/>
     </row>
     <row r="91" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
     </row>
     <row r="97" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
     </row>
     <row r="103" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
     </row>
     <row r="104" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
     </row>
     <row r="105" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
     </row>
     <row r="106" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
     </row>
     <row r="107" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -2007,7 +2016,7 @@
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2017,7 +2026,7 @@
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2027,7 +2036,7 @@
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2037,7 +2046,7 @@
       <c r="H110" s="2"/>
     </row>
     <row r="111" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="38"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -2047,7 +2056,7 @@
       <c r="H111" s="2"/>
     </row>
     <row r="112" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2057,7 +2066,7 @@
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="38"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2067,7 +2076,7 @@
       <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="A114" s="38"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2077,7 +2086,7 @@
       <c r="H114" s="2"/>
     </row>
     <row r="115" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="38"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2087,7 +2096,7 @@
       <c r="H115" s="2"/>
     </row>
     <row r="116" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="A116" s="38"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2097,7 +2106,7 @@
       <c r="H116" s="2"/>
     </row>
     <row r="117" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="38"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -2107,7 +2116,7 @@
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+      <c r="A118" s="38"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -2117,7 +2126,7 @@
       <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+      <c r="A119" s="38"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -2127,7 +2136,7 @@
       <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -2137,7 +2146,7 @@
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="38"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -2147,7 +2156,7 @@
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="A122" s="38"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -2157,7 +2166,7 @@
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="A123" s="38"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2167,7 +2176,7 @@
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="A124" s="38"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -2177,7 +2186,7 @@
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="38"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -2187,7 +2196,7 @@
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="38"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -2197,7 +2206,7 @@
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="38"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -2207,7 +2216,7 @@
       <c r="H127" s="2"/>
     </row>
     <row r="128" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="38"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -2217,7 +2226,7 @@
       <c r="H128" s="2"/>
     </row>
     <row r="129" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="38"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -2227,7 +2236,7 @@
       <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="38"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -2237,7 +2246,7 @@
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="38"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -2247,7 +2256,7 @@
       <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="38"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -2257,7 +2266,7 @@
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="38"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -2267,7 +2276,7 @@
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="38"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -2277,7 +2286,7 @@
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
+      <c r="A135" s="38"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -2287,7 +2296,7 @@
       <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+      <c r="A136" s="38"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -2297,7 +2306,7 @@
       <c r="H136" s="2"/>
     </row>
     <row r="137" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="38"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -2307,7 +2316,7 @@
       <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="38"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -2317,7 +2326,7 @@
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="38"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -2327,7 +2336,7 @@
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+      <c r="A140" s="38"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -2337,7 +2346,7 @@
       <c r="H140" s="2"/>
     </row>
     <row r="141" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+      <c r="A141" s="38"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -2347,7 +2356,7 @@
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+      <c r="A142" s="38"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -2357,7 +2366,7 @@
       <c r="H142" s="2"/>
     </row>
     <row r="143" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
+      <c r="A143" s="38"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -2367,7 +2376,7 @@
       <c r="H143" s="2"/>
     </row>
     <row r="144" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
+      <c r="A144" s="38"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -2377,7 +2386,7 @@
       <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
+      <c r="A145" s="38"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -2387,7 +2396,7 @@
       <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
+      <c r="A146" s="38"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -2397,7 +2406,7 @@
       <c r="H146" s="2"/>
     </row>
     <row r="147" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
+      <c r="A147" s="38"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -2407,7 +2416,7 @@
       <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
+      <c r="A148" s="38"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -2417,7 +2426,7 @@
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
+      <c r="A149" s="38"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -2427,7 +2436,7 @@
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
+      <c r="A150" s="38"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>

--- a/library/ob_export_date.xlsx
+++ b/library/ob_export_date.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C212AA1-C261-46AB-97DC-BA1135A9BDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE97A5FD-7EB4-40C2-8DE6-F92FEA6A5F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22980" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -82,12 +82,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm&quot;/&quot;dd&quot;/&quot;yyyy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,12 +137,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
@@ -159,21 +151,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -201,35 +187,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -287,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,10 +271,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -325,110 +283,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,10 +663,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J938"/>
+  <dimension ref="A1:J888"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -794,24 +710,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,665 +742,617 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="38"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1494,8 +1362,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+    <row r="60" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1505,8 +1372,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+    <row r="61" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1516,8 +1382,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+    <row r="62" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1527,8 +1392,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+    <row r="63" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1538,8 +1402,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+    <row r="64" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1549,8 +1412,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+    <row r="65" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1560,8 +1422,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+    <row r="66" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1571,8 +1432,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+    <row r="67" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1582,8 +1442,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+    <row r="68" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1593,8 +1452,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+    <row r="69" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1604,8 +1462,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+    <row r="70" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1615,8 +1472,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+    <row r="71" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1626,8 +1482,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+    <row r="72" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1637,8 +1492,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+    <row r="73" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1648,8 +1502,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+    <row r="74" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -1659,8 +1512,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+    <row r="75" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1670,8 +1522,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+    <row r="76" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -1681,8 +1532,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+    <row r="77" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1692,8 +1542,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+    <row r="78" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -1703,8 +1552,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+    <row r="79" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1714,8 +1562,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+    <row r="80" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -1725,8 +1572,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+    <row r="81" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -1736,8 +1582,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+    <row r="82" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -1747,8 +1592,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+    <row r="83" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1758,8 +1602,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+    <row r="84" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -1769,8 +1612,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+    <row r="85" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -1780,8 +1622,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+    <row r="86" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -1791,8 +1632,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+    <row r="87" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -1802,8 +1642,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+    <row r="88" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -1813,7 +1652,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -1823,7 +1662,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -1833,7 +1672,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -1843,7 +1682,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -1853,7 +1692,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -1863,7 +1702,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -1873,7 +1712,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -1883,7 +1722,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -9812,506 +9651,6 @@
       <c r="G888" s="5"/>
       <c r="H888" s="5"/>
       <c r="I888" s="5"/>
-    </row>
-    <row r="889" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B889" s="3"/>
-      <c r="C889" s="3"/>
-      <c r="D889" s="3"/>
-      <c r="E889" s="3"/>
-      <c r="F889" s="3"/>
-      <c r="G889" s="5"/>
-      <c r="H889" s="5"/>
-      <c r="I889" s="5"/>
-    </row>
-    <row r="890" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B890" s="3"/>
-      <c r="C890" s="3"/>
-      <c r="D890" s="3"/>
-      <c r="E890" s="3"/>
-      <c r="F890" s="3"/>
-      <c r="G890" s="5"/>
-      <c r="H890" s="5"/>
-      <c r="I890" s="5"/>
-    </row>
-    <row r="891" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B891" s="3"/>
-      <c r="C891" s="3"/>
-      <c r="D891" s="3"/>
-      <c r="E891" s="3"/>
-      <c r="F891" s="3"/>
-      <c r="G891" s="5"/>
-      <c r="H891" s="5"/>
-      <c r="I891" s="5"/>
-    </row>
-    <row r="892" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B892" s="3"/>
-      <c r="C892" s="3"/>
-      <c r="D892" s="3"/>
-      <c r="E892" s="3"/>
-      <c r="F892" s="3"/>
-      <c r="G892" s="5"/>
-      <c r="H892" s="5"/>
-      <c r="I892" s="5"/>
-    </row>
-    <row r="893" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B893" s="3"/>
-      <c r="C893" s="3"/>
-      <c r="D893" s="3"/>
-      <c r="E893" s="3"/>
-      <c r="F893" s="3"/>
-      <c r="G893" s="5"/>
-      <c r="H893" s="5"/>
-      <c r="I893" s="5"/>
-    </row>
-    <row r="894" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B894" s="3"/>
-      <c r="C894" s="3"/>
-      <c r="D894" s="3"/>
-      <c r="E894" s="3"/>
-      <c r="F894" s="3"/>
-      <c r="G894" s="5"/>
-      <c r="H894" s="5"/>
-      <c r="I894" s="5"/>
-    </row>
-    <row r="895" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B895" s="3"/>
-      <c r="C895" s="3"/>
-      <c r="D895" s="3"/>
-      <c r="E895" s="3"/>
-      <c r="F895" s="3"/>
-      <c r="G895" s="5"/>
-      <c r="H895" s="5"/>
-      <c r="I895" s="5"/>
-    </row>
-    <row r="896" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B896" s="3"/>
-      <c r="C896" s="3"/>
-      <c r="D896" s="3"/>
-      <c r="E896" s="3"/>
-      <c r="F896" s="3"/>
-      <c r="G896" s="5"/>
-      <c r="H896" s="5"/>
-      <c r="I896" s="5"/>
-    </row>
-    <row r="897" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B897" s="3"/>
-      <c r="C897" s="3"/>
-      <c r="D897" s="3"/>
-      <c r="E897" s="3"/>
-      <c r="F897" s="3"/>
-      <c r="G897" s="5"/>
-      <c r="H897" s="5"/>
-      <c r="I897" s="5"/>
-    </row>
-    <row r="898" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B898" s="3"/>
-      <c r="C898" s="3"/>
-      <c r="D898" s="3"/>
-      <c r="E898" s="3"/>
-      <c r="F898" s="3"/>
-      <c r="G898" s="5"/>
-      <c r="H898" s="5"/>
-      <c r="I898" s="5"/>
-    </row>
-    <row r="899" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B899" s="3"/>
-      <c r="C899" s="3"/>
-      <c r="D899" s="3"/>
-      <c r="E899" s="3"/>
-      <c r="F899" s="3"/>
-      <c r="G899" s="5"/>
-      <c r="H899" s="5"/>
-      <c r="I899" s="5"/>
-    </row>
-    <row r="900" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B900" s="3"/>
-      <c r="C900" s="3"/>
-      <c r="D900" s="3"/>
-      <c r="E900" s="3"/>
-      <c r="F900" s="3"/>
-      <c r="G900" s="5"/>
-      <c r="H900" s="5"/>
-      <c r="I900" s="5"/>
-    </row>
-    <row r="901" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B901" s="3"/>
-      <c r="C901" s="3"/>
-      <c r="D901" s="3"/>
-      <c r="E901" s="3"/>
-      <c r="F901" s="3"/>
-      <c r="G901" s="5"/>
-      <c r="H901" s="5"/>
-      <c r="I901" s="5"/>
-    </row>
-    <row r="902" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B902" s="3"/>
-      <c r="C902" s="3"/>
-      <c r="D902" s="3"/>
-      <c r="E902" s="3"/>
-      <c r="F902" s="3"/>
-      <c r="G902" s="5"/>
-      <c r="H902" s="5"/>
-      <c r="I902" s="5"/>
-    </row>
-    <row r="903" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B903" s="3"/>
-      <c r="C903" s="3"/>
-      <c r="D903" s="3"/>
-      <c r="E903" s="3"/>
-      <c r="F903" s="3"/>
-      <c r="G903" s="5"/>
-      <c r="H903" s="5"/>
-      <c r="I903" s="5"/>
-    </row>
-    <row r="904" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B904" s="3"/>
-      <c r="C904" s="3"/>
-      <c r="D904" s="3"/>
-      <c r="E904" s="3"/>
-      <c r="F904" s="3"/>
-      <c r="G904" s="5"/>
-      <c r="H904" s="5"/>
-      <c r="I904" s="5"/>
-    </row>
-    <row r="905" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B905" s="3"/>
-      <c r="C905" s="3"/>
-      <c r="D905" s="3"/>
-      <c r="E905" s="3"/>
-      <c r="F905" s="3"/>
-      <c r="G905" s="5"/>
-      <c r="H905" s="5"/>
-      <c r="I905" s="5"/>
-    </row>
-    <row r="906" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B906" s="3"/>
-      <c r="C906" s="3"/>
-      <c r="D906" s="3"/>
-      <c r="E906" s="3"/>
-      <c r="F906" s="3"/>
-      <c r="G906" s="5"/>
-      <c r="H906" s="5"/>
-      <c r="I906" s="5"/>
-    </row>
-    <row r="907" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B907" s="3"/>
-      <c r="C907" s="3"/>
-      <c r="D907" s="3"/>
-      <c r="E907" s="3"/>
-      <c r="F907" s="3"/>
-      <c r="G907" s="5"/>
-      <c r="H907" s="5"/>
-      <c r="I907" s="5"/>
-    </row>
-    <row r="908" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B908" s="3"/>
-      <c r="C908" s="3"/>
-      <c r="D908" s="3"/>
-      <c r="E908" s="3"/>
-      <c r="F908" s="3"/>
-      <c r="G908" s="5"/>
-      <c r="H908" s="5"/>
-      <c r="I908" s="5"/>
-    </row>
-    <row r="909" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B909" s="3"/>
-      <c r="C909" s="3"/>
-      <c r="D909" s="3"/>
-      <c r="E909" s="3"/>
-      <c r="F909" s="3"/>
-      <c r="G909" s="5"/>
-      <c r="H909" s="5"/>
-      <c r="I909" s="5"/>
-    </row>
-    <row r="910" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B910" s="3"/>
-      <c r="C910" s="3"/>
-      <c r="D910" s="3"/>
-      <c r="E910" s="3"/>
-      <c r="F910" s="3"/>
-      <c r="G910" s="5"/>
-      <c r="H910" s="5"/>
-      <c r="I910" s="5"/>
-    </row>
-    <row r="911" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B911" s="3"/>
-      <c r="C911" s="3"/>
-      <c r="D911" s="3"/>
-      <c r="E911" s="3"/>
-      <c r="F911" s="3"/>
-      <c r="G911" s="5"/>
-      <c r="H911" s="5"/>
-      <c r="I911" s="5"/>
-    </row>
-    <row r="912" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B912" s="3"/>
-      <c r="C912" s="3"/>
-      <c r="D912" s="3"/>
-      <c r="E912" s="3"/>
-      <c r="F912" s="3"/>
-      <c r="G912" s="5"/>
-      <c r="H912" s="5"/>
-      <c r="I912" s="5"/>
-    </row>
-    <row r="913" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B913" s="3"/>
-      <c r="C913" s="3"/>
-      <c r="D913" s="3"/>
-      <c r="E913" s="3"/>
-      <c r="F913" s="3"/>
-      <c r="G913" s="5"/>
-      <c r="H913" s="5"/>
-      <c r="I913" s="5"/>
-    </row>
-    <row r="914" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B914" s="3"/>
-      <c r="C914" s="3"/>
-      <c r="D914" s="3"/>
-      <c r="E914" s="3"/>
-      <c r="F914" s="3"/>
-      <c r="G914" s="5"/>
-      <c r="H914" s="5"/>
-      <c r="I914" s="5"/>
-    </row>
-    <row r="915" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B915" s="3"/>
-      <c r="C915" s="3"/>
-      <c r="D915" s="3"/>
-      <c r="E915" s="3"/>
-      <c r="F915" s="3"/>
-      <c r="G915" s="5"/>
-      <c r="H915" s="5"/>
-      <c r="I915" s="5"/>
-    </row>
-    <row r="916" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B916" s="3"/>
-      <c r="C916" s="3"/>
-      <c r="D916" s="3"/>
-      <c r="E916" s="3"/>
-      <c r="F916" s="3"/>
-      <c r="G916" s="5"/>
-      <c r="H916" s="5"/>
-      <c r="I916" s="5"/>
-    </row>
-    <row r="917" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B917" s="3"/>
-      <c r="C917" s="3"/>
-      <c r="D917" s="3"/>
-      <c r="E917" s="3"/>
-      <c r="F917" s="3"/>
-      <c r="G917" s="5"/>
-      <c r="H917" s="5"/>
-      <c r="I917" s="5"/>
-    </row>
-    <row r="918" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B918" s="3"/>
-      <c r="C918" s="3"/>
-      <c r="D918" s="3"/>
-      <c r="E918" s="3"/>
-      <c r="F918" s="3"/>
-      <c r="G918" s="5"/>
-      <c r="H918" s="5"/>
-      <c r="I918" s="5"/>
-    </row>
-    <row r="919" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B919" s="3"/>
-      <c r="C919" s="3"/>
-      <c r="D919" s="3"/>
-      <c r="E919" s="3"/>
-      <c r="F919" s="3"/>
-      <c r="G919" s="5"/>
-      <c r="H919" s="5"/>
-      <c r="I919" s="5"/>
-    </row>
-    <row r="920" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B920" s="3"/>
-      <c r="C920" s="3"/>
-      <c r="D920" s="3"/>
-      <c r="E920" s="3"/>
-      <c r="F920" s="3"/>
-      <c r="G920" s="5"/>
-      <c r="H920" s="5"/>
-      <c r="I920" s="5"/>
-    </row>
-    <row r="921" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B921" s="3"/>
-      <c r="C921" s="3"/>
-      <c r="D921" s="3"/>
-      <c r="E921" s="3"/>
-      <c r="F921" s="3"/>
-      <c r="G921" s="5"/>
-      <c r="H921" s="5"/>
-      <c r="I921" s="5"/>
-    </row>
-    <row r="922" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B922" s="3"/>
-      <c r="C922" s="3"/>
-      <c r="D922" s="3"/>
-      <c r="E922" s="3"/>
-      <c r="F922" s="3"/>
-      <c r="G922" s="5"/>
-      <c r="H922" s="5"/>
-      <c r="I922" s="5"/>
-    </row>
-    <row r="923" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B923" s="3"/>
-      <c r="C923" s="3"/>
-      <c r="D923" s="3"/>
-      <c r="E923" s="3"/>
-      <c r="F923" s="3"/>
-      <c r="G923" s="5"/>
-      <c r="H923" s="5"/>
-      <c r="I923" s="5"/>
-    </row>
-    <row r="924" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B924" s="3"/>
-      <c r="C924" s="3"/>
-      <c r="D924" s="3"/>
-      <c r="E924" s="3"/>
-      <c r="F924" s="3"/>
-      <c r="G924" s="5"/>
-      <c r="H924" s="5"/>
-      <c r="I924" s="5"/>
-    </row>
-    <row r="925" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B925" s="3"/>
-      <c r="C925" s="3"/>
-      <c r="D925" s="3"/>
-      <c r="E925" s="3"/>
-      <c r="F925" s="3"/>
-      <c r="G925" s="5"/>
-      <c r="H925" s="5"/>
-      <c r="I925" s="5"/>
-    </row>
-    <row r="926" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B926" s="3"/>
-      <c r="C926" s="3"/>
-      <c r="D926" s="3"/>
-      <c r="E926" s="3"/>
-      <c r="F926" s="3"/>
-      <c r="G926" s="5"/>
-      <c r="H926" s="5"/>
-      <c r="I926" s="5"/>
-    </row>
-    <row r="927" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B927" s="3"/>
-      <c r="C927" s="3"/>
-      <c r="D927" s="3"/>
-      <c r="E927" s="3"/>
-      <c r="F927" s="3"/>
-      <c r="G927" s="5"/>
-      <c r="H927" s="5"/>
-      <c r="I927" s="5"/>
-    </row>
-    <row r="928" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B928" s="3"/>
-      <c r="C928" s="3"/>
-      <c r="D928" s="3"/>
-      <c r="E928" s="3"/>
-      <c r="F928" s="3"/>
-      <c r="G928" s="5"/>
-      <c r="H928" s="5"/>
-      <c r="I928" s="5"/>
-    </row>
-    <row r="929" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B929" s="3"/>
-      <c r="C929" s="3"/>
-      <c r="D929" s="3"/>
-      <c r="E929" s="3"/>
-      <c r="F929" s="3"/>
-      <c r="G929" s="5"/>
-      <c r="H929" s="5"/>
-      <c r="I929" s="5"/>
-    </row>
-    <row r="930" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B930" s="3"/>
-      <c r="C930" s="3"/>
-      <c r="D930" s="3"/>
-      <c r="E930" s="3"/>
-      <c r="F930" s="3"/>
-      <c r="G930" s="5"/>
-      <c r="H930" s="5"/>
-      <c r="I930" s="5"/>
-    </row>
-    <row r="931" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B931" s="3"/>
-      <c r="C931" s="3"/>
-      <c r="D931" s="3"/>
-      <c r="E931" s="3"/>
-      <c r="F931" s="3"/>
-      <c r="G931" s="5"/>
-      <c r="H931" s="5"/>
-      <c r="I931" s="5"/>
-    </row>
-    <row r="932" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B932" s="3"/>
-      <c r="C932" s="3"/>
-      <c r="D932" s="3"/>
-      <c r="E932" s="3"/>
-      <c r="F932" s="3"/>
-      <c r="G932" s="5"/>
-      <c r="H932" s="5"/>
-      <c r="I932" s="5"/>
-    </row>
-    <row r="933" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B933" s="3"/>
-      <c r="C933" s="3"/>
-      <c r="D933" s="3"/>
-      <c r="E933" s="3"/>
-      <c r="F933" s="3"/>
-      <c r="G933" s="5"/>
-      <c r="H933" s="5"/>
-      <c r="I933" s="5"/>
-    </row>
-    <row r="934" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B934" s="3"/>
-      <c r="C934" s="3"/>
-      <c r="D934" s="3"/>
-      <c r="E934" s="3"/>
-      <c r="F934" s="3"/>
-      <c r="G934" s="5"/>
-      <c r="H934" s="5"/>
-      <c r="I934" s="5"/>
-    </row>
-    <row r="935" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B935" s="3"/>
-      <c r="C935" s="3"/>
-      <c r="D935" s="3"/>
-      <c r="E935" s="3"/>
-      <c r="F935" s="3"/>
-      <c r="G935" s="5"/>
-      <c r="H935" s="5"/>
-      <c r="I935" s="5"/>
-    </row>
-    <row r="936" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B936" s="3"/>
-      <c r="C936" s="3"/>
-      <c r="D936" s="3"/>
-      <c r="E936" s="3"/>
-      <c r="F936" s="3"/>
-      <c r="G936" s="5"/>
-      <c r="H936" s="5"/>
-      <c r="I936" s="5"/>
-    </row>
-    <row r="937" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B937" s="3"/>
-      <c r="C937" s="3"/>
-      <c r="D937" s="3"/>
-      <c r="E937" s="3"/>
-      <c r="F937" s="3"/>
-      <c r="G937" s="5"/>
-      <c r="H937" s="5"/>
-      <c r="I937" s="5"/>
-    </row>
-    <row r="938" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B938" s="3"/>
-      <c r="C938" s="3"/>
-      <c r="D938" s="3"/>
-      <c r="E938" s="3"/>
-      <c r="F938" s="3"/>
-      <c r="G938" s="5"/>
-      <c r="H938" s="5"/>
-      <c r="I938" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/library/ob_export_date.xlsx
+++ b/library/ob_export_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE97A5FD-7EB4-40C2-8DE6-F92FEA6A5F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECEED6D-DC5E-4F1D-8AF0-14F5D89FB336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22980" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,6 +290,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,34 +350,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,7 +673,7 @@
   <dimension ref="A1:J888"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J31"/>
+      <selection activeCell="J8" sqref="J8:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -710,24 +717,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,337 +749,337 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="14"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
